--- a/NL/SWZ.xlsx
+++ b/NL/SWZ.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4093" uniqueCount="1012">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4093" uniqueCount="1013">
   <si>
     <t>Basel</t>
   </si>
@@ -3019,6 +3019,9 @@
   </si>
   <si>
     <t>31.9%</t>
+  </si>
+  <si>
+    <t>23.1%</t>
   </si>
   <si>
     <t>26.7%</t>
@@ -29710,7 +29713,7 @@
         <v>996</v>
       </c>
       <c r="D4" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="E4" t="s">
         <v>416</v>
@@ -29727,7 +29730,7 @@
         <v>552</v>
       </c>
       <c r="D5" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E5" t="s">
         <v>850</v>
@@ -29798,7 +29801,7 @@
         <v>523</v>
       </c>
       <c r="E9" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="10">
@@ -29815,7 +29818,7 @@
         <v>526</v>
       </c>
       <c r="E10" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="11">
@@ -29829,10 +29832,10 @@
         <v>701</v>
       </c>
       <c r="D11" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E11" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="12">
@@ -29843,13 +29846,13 @@
         <v>995</v>
       </c>
       <c r="C12" t="s">
-        <v>519</v>
+        <v>998</v>
       </c>
       <c r="D12" t="s">
-        <v>453</v>
+        <v>676</v>
       </c>
       <c r="E12" t="s">
-        <v>850</v>
+        <v>676</v>
       </c>
     </row>
   </sheetData>
@@ -29871,10 +29874,10 @@
         <v>983</v>
       </c>
       <c r="C1" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="D1" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="2">
@@ -29885,7 +29888,7 @@
         <v>985</v>
       </c>
       <c r="C2" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="D2" t="s">
         <v>850</v>
@@ -29913,7 +29916,7 @@
         <v>987</v>
       </c>
       <c r="C4" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="D4" t="s">
         <v>614</v>
@@ -29958,7 +29961,7 @@
         <v>416</v>
       </c>
       <c r="D7" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="8">
@@ -29969,7 +29972,7 @@
         <v>991</v>
       </c>
       <c r="C8" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="D8" t="s">
         <v>414</v>
@@ -30011,10 +30014,10 @@
         <v>994</v>
       </c>
       <c r="C11" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="D11" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="12">
@@ -30025,10 +30028,10 @@
         <v>995</v>
       </c>
       <c r="C12" t="s">
-        <v>1006</v>
+        <v>482</v>
       </c>
       <c r="D12" t="s">
-        <v>850</v>
+        <v>676</v>
       </c>
     </row>
   </sheetData>

--- a/NL/SWZ.xlsx
+++ b/NL/SWZ.xlsx
@@ -3021,9 +3021,6 @@
     <t>31.9%</t>
   </si>
   <si>
-    <t>23.1%</t>
-  </si>
-  <si>
     <t>26.7%</t>
   </si>
   <si>
@@ -3064,6 +3061,9 @@
   </si>
   <si>
     <t>61.3%</t>
+  </si>
+  <si>
+    <t>42.1%</t>
   </si>
 </sst>
 </file>
@@ -29713,7 +29713,7 @@
         <v>996</v>
       </c>
       <c r="D4" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E4" t="s">
         <v>416</v>
@@ -29730,7 +29730,7 @@
         <v>552</v>
       </c>
       <c r="D5" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E5" t="s">
         <v>850</v>
@@ -29801,7 +29801,7 @@
         <v>523</v>
       </c>
       <c r="E9" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="10">
@@ -29818,7 +29818,7 @@
         <v>526</v>
       </c>
       <c r="E10" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="11">
@@ -29832,10 +29832,10 @@
         <v>701</v>
       </c>
       <c r="D11" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E11" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="12">
@@ -29846,13 +29846,13 @@
         <v>995</v>
       </c>
       <c r="C12" t="s">
-        <v>998</v>
+        <v>678</v>
       </c>
       <c r="D12" t="s">
-        <v>676</v>
+        <v>886</v>
       </c>
       <c r="E12" t="s">
-        <v>676</v>
+        <v>886</v>
       </c>
     </row>
   </sheetData>
@@ -29874,10 +29874,10 @@
         <v>983</v>
       </c>
       <c r="C1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D1" t="s">
         <v>1005</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1006</v>
       </c>
     </row>
     <row r="2">
@@ -29888,7 +29888,7 @@
         <v>985</v>
       </c>
       <c r="C2" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D2" t="s">
         <v>850</v>
@@ -29916,7 +29916,7 @@
         <v>987</v>
       </c>
       <c r="C4" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D4" t="s">
         <v>614</v>
@@ -29961,7 +29961,7 @@
         <v>416</v>
       </c>
       <c r="D7" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="8">
@@ -29972,7 +29972,7 @@
         <v>991</v>
       </c>
       <c r="C8" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D8" t="s">
         <v>414</v>
@@ -30014,10 +30014,10 @@
         <v>994</v>
       </c>
       <c r="C11" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D11" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="12">
@@ -30028,10 +30028,10 @@
         <v>995</v>
       </c>
       <c r="C12" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="D12" t="s">
-        <v>676</v>
+        <v>1012</v>
       </c>
     </row>
   </sheetData>
